--- a/LanQiao/题目.xlsx
+++ b/LanQiao/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B3D580-5ABB-4B28-A93A-E1464D9D3932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4EE1B-19C0-43FA-BF44-1BE4795B1576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,57 @@
   </si>
   <si>
     <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>516. 最长回文子序列</t>
+  </si>
+  <si>
+    <t>从后往前遍历 / 一维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312. 让字符串成为回文串的最少插入次数</t>
+  </si>
+  <si>
+    <t>普通DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494. 目标和</t>
+  </si>
+  <si>
+    <t>01背包(内外层循环的顺序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300. 最长上升子序列</t>
+  </si>
+  <si>
+    <t>53. 最大子序和</t>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>518. 零钱兑换 II</t>
+  </si>
+  <si>
+    <t>完全背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>字符串DP☆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:EX203"/>
+  <dimension ref="A2:EX204"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,7 +599,9 @@
       <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -730,7 +783,9 @@
       <c r="O3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1518,7 +1573,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1670,9 +1725,7 @@
     </row>
     <row r="9" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1828,17 +1881,39 @@
     </row>
     <row r="10" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1985,16 +2060,36 @@
     <row r="11" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -5102,7 +5197,7 @@
       <c r="EW30" s="3"/>
       <c r="EX30" s="3"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -32090,6 +32185,162 @@
       <c r="EW203" s="3"/>
       <c r="EX203" s="3"/>
     </row>
+    <row r="204" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
+      <c r="Y204" s="3"/>
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="3"/>
+      <c r="AB204" s="3"/>
+      <c r="AC204" s="3"/>
+      <c r="AD204" s="3"/>
+      <c r="AE204" s="3"/>
+      <c r="AF204" s="3"/>
+      <c r="AG204" s="3"/>
+      <c r="AH204" s="3"/>
+      <c r="AI204" s="3"/>
+      <c r="AJ204" s="3"/>
+      <c r="AK204" s="3"/>
+      <c r="AL204" s="3"/>
+      <c r="AM204" s="3"/>
+      <c r="AN204" s="3"/>
+      <c r="AO204" s="3"/>
+      <c r="AP204" s="3"/>
+      <c r="AQ204" s="3"/>
+      <c r="AR204" s="3"/>
+      <c r="AS204" s="3"/>
+      <c r="AT204" s="3"/>
+      <c r="AU204" s="3"/>
+      <c r="AV204" s="3"/>
+      <c r="AW204" s="3"/>
+      <c r="AX204" s="3"/>
+      <c r="AY204" s="3"/>
+      <c r="AZ204" s="3"/>
+      <c r="BA204" s="3"/>
+      <c r="BB204" s="3"/>
+      <c r="BC204" s="3"/>
+      <c r="BD204" s="3"/>
+      <c r="BE204" s="3"/>
+      <c r="BF204" s="3"/>
+      <c r="BG204" s="3"/>
+      <c r="BH204" s="3"/>
+      <c r="BI204" s="3"/>
+      <c r="BJ204" s="3"/>
+      <c r="BK204" s="3"/>
+      <c r="BL204" s="3"/>
+      <c r="BM204" s="3"/>
+      <c r="BN204" s="3"/>
+      <c r="BO204" s="3"/>
+      <c r="BP204" s="3"/>
+      <c r="BQ204" s="3"/>
+      <c r="BR204" s="3"/>
+      <c r="BS204" s="3"/>
+      <c r="BT204" s="3"/>
+      <c r="BU204" s="3"/>
+      <c r="BV204" s="3"/>
+      <c r="BW204" s="3"/>
+      <c r="BX204" s="3"/>
+      <c r="BY204" s="3"/>
+      <c r="BZ204" s="3"/>
+      <c r="CA204" s="3"/>
+      <c r="CB204" s="3"/>
+      <c r="CC204" s="3"/>
+      <c r="CD204" s="3"/>
+      <c r="CE204" s="3"/>
+      <c r="CF204" s="3"/>
+      <c r="CG204" s="3"/>
+      <c r="CH204" s="3"/>
+      <c r="CI204" s="3"/>
+      <c r="CJ204" s="3"/>
+      <c r="CK204" s="3"/>
+      <c r="CL204" s="3"/>
+      <c r="CM204" s="3"/>
+      <c r="CN204" s="3"/>
+      <c r="CO204" s="3"/>
+      <c r="CP204" s="3"/>
+      <c r="CQ204" s="3"/>
+      <c r="CR204" s="3"/>
+      <c r="CS204" s="3"/>
+      <c r="CT204" s="3"/>
+      <c r="CU204" s="3"/>
+      <c r="CV204" s="3"/>
+      <c r="CW204" s="3"/>
+      <c r="CX204" s="3"/>
+      <c r="CY204" s="3"/>
+      <c r="CZ204" s="3"/>
+      <c r="DA204" s="3"/>
+      <c r="DB204" s="3"/>
+      <c r="DC204" s="3"/>
+      <c r="DD204" s="3"/>
+      <c r="DE204" s="3"/>
+      <c r="DF204" s="3"/>
+      <c r="DG204" s="3"/>
+      <c r="DH204" s="3"/>
+      <c r="DI204" s="3"/>
+      <c r="DJ204" s="3"/>
+      <c r="DK204" s="3"/>
+      <c r="DL204" s="3"/>
+      <c r="DM204" s="3"/>
+      <c r="DN204" s="3"/>
+      <c r="DO204" s="3"/>
+      <c r="DP204" s="3"/>
+      <c r="DQ204" s="3"/>
+      <c r="DR204" s="3"/>
+      <c r="DS204" s="3"/>
+      <c r="DT204" s="3"/>
+      <c r="DU204" s="3"/>
+      <c r="DV204" s="3"/>
+      <c r="DW204" s="3"/>
+      <c r="DX204" s="3"/>
+      <c r="DY204" s="3"/>
+      <c r="DZ204" s="3"/>
+      <c r="EA204" s="3"/>
+      <c r="EB204" s="3"/>
+      <c r="EC204" s="3"/>
+      <c r="ED204" s="3"/>
+      <c r="EE204" s="3"/>
+      <c r="EF204" s="3"/>
+      <c r="EG204" s="3"/>
+      <c r="EH204" s="3"/>
+      <c r="EI204" s="3"/>
+      <c r="EJ204" s="3"/>
+      <c r="EK204" s="3"/>
+      <c r="EL204" s="3"/>
+      <c r="EM204" s="3"/>
+      <c r="EN204" s="3"/>
+      <c r="EO204" s="3"/>
+      <c r="EP204" s="3"/>
+      <c r="EQ204" s="3"/>
+      <c r="ER204" s="3"/>
+      <c r="ES204" s="3"/>
+      <c r="ET204" s="3"/>
+      <c r="EU204" s="3"/>
+      <c r="EV204" s="3"/>
+      <c r="EW204" s="3"/>
+      <c r="EX204" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -32110,8 +32361,19 @@
     <hyperlink ref="F6" r:id="rId15" display="https://leetcode-cn.com/problems/combination-sum-iv/" xr:uid="{0D98F48F-8420-4977-919F-972A2D1A423C}"/>
     <hyperlink ref="N2" r:id="rId16" display="https://leetcode-cn.com/problems/wildcard-matching/" xr:uid="{7F55B14C-7B04-4015-87C8-D97FAC863203}"/>
     <hyperlink ref="O2" r:id="rId17" display="https://leetcode-cn.com/problems/regular-expression-matching/" xr:uid="{B36EC8D4-9E58-4141-8924-97B2F46619C0}"/>
+    <hyperlink ref="C10" r:id="rId18" display="https://leetcode-cn.com/problems/longest-palindromic-subsequence/" xr:uid="{3CA8C469-42C7-4707-A272-8248A1ED98D8}"/>
+    <hyperlink ref="D10" r:id="rId19" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{6B8CA1B6-BD26-4559-BCEA-8C7AADD4ACFA}"/>
+    <hyperlink ref="E10" r:id="rId20" display="https://leetcode-cn.com/problems/minimum-insertion-steps-to-make-a-string-palindrome/" xr:uid="{E63975C8-9C05-42B3-852F-230083CDCE9E}"/>
+    <hyperlink ref="F10" r:id="rId21" display="https://leetcode-cn.com/problems/target-sum/" xr:uid="{B963191B-7BD5-4CA5-AF4F-93A9DD6E3897}"/>
+    <hyperlink ref="G10" r:id="rId22" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/" xr:uid="{03FF8FAF-9C91-4031-ADD0-120E3FE8A7CE}"/>
+    <hyperlink ref="H10" r:id="rId23" display="https://leetcode-cn.com/problems/maximum-subarray/" xr:uid="{31B05073-FA50-46C7-9F4A-5F29C615BE2D}"/>
+    <hyperlink ref="I10" r:id="rId24" display="https://leetcode-cn.com/problems/partition-equal-subset-sum/" xr:uid="{253FA8A5-0480-413F-9070-CD04B8888C8A}"/>
+    <hyperlink ref="J10" r:id="rId25" display="https://leetcode-cn.com/problems/coin-change/" xr:uid="{5835ED64-680F-4EEA-B472-FF9D38F0A7CB}"/>
+    <hyperlink ref="K10" r:id="rId26" display="https://leetcode-cn.com/problems/coin-change-2/" xr:uid="{58837F1D-45D0-45BB-B18D-6E042A2AA89F}"/>
+    <hyperlink ref="L10" r:id="rId27" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{941AC91D-E754-4D0C-BC30-3509C9ADB4F0}"/>
+    <hyperlink ref="P2" r:id="rId28" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{0340014B-E129-4D52-8FFD-564FDA72CE3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/LanQiao/题目.xlsx
+++ b/LanQiao/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4EE1B-19C0-43FA-BF44-1BE4795B1576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B5D4E-0818-451A-8F0E-0C16B281EFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,58 @@
   </si>
   <si>
     <t>字符串DP☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887. 鸡蛋掉落</t>
+  </si>
+  <si>
+    <t>思维DP / 二分优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312. 戳气球</t>
+  </si>
+  <si>
+    <t>区间DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>877. 石子游戏</t>
+  </si>
+  <si>
+    <t>博弈 / DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>486. 预测赢家</t>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+  </si>
+  <si>
+    <t>KMP / DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>435. 无重叠区间</t>
+  </si>
+  <si>
+    <t>区间调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>452. 用最少数量的箭引爆气球</t>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>股票系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:EX204"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,7 +654,9 @@
       <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -786,7 +840,9 @@
       <c r="P3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1914,11 +1970,21 @@
       <c r="L10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="M10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2090,11 +2156,21 @@
       <c r="L11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2547,10 +2623,15 @@
     </row>
     <row r="14" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2704,9 +2785,12 @@
     <row r="15" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -32372,8 +32456,16 @@
     <hyperlink ref="K10" r:id="rId26" display="https://leetcode-cn.com/problems/coin-change-2/" xr:uid="{58837F1D-45D0-45BB-B18D-6E042A2AA89F}"/>
     <hyperlink ref="L10" r:id="rId27" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{941AC91D-E754-4D0C-BC30-3509C9ADB4F0}"/>
     <hyperlink ref="P2" r:id="rId28" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{0340014B-E129-4D52-8FFD-564FDA72CE3C}"/>
+    <hyperlink ref="Q2" r:id="rId29" display="https://leetcode-cn.com/problems/super-egg-drop/" xr:uid="{6CF0061F-27FB-40A3-BEA4-5218708FF828}"/>
+    <hyperlink ref="M10" r:id="rId30" display="https://leetcode-cn.com/problems/burst-balloons/" xr:uid="{360AEA4B-8D1E-43ED-BC24-DC708C20F308}"/>
+    <hyperlink ref="N10" r:id="rId31" display="https://leetcode-cn.com/problems/stone-game/" xr:uid="{0F4BDE75-3C42-4C1F-88CC-2C5E7C39E8FB}"/>
+    <hyperlink ref="O10" r:id="rId32" display="https://leetcode-cn.com/problems/predict-the-winner/" xr:uid="{62A1C41B-6DAA-4254-8937-A5D479BC1D66}"/>
+    <hyperlink ref="P10" r:id="rId33" display="https://leetcode-cn.com/problems/implement-strstr/" xr:uid="{5821CD23-92C7-4C33-AF23-1BFBA1E6DBD3}"/>
+    <hyperlink ref="C14" r:id="rId34" display="https://leetcode-cn.com/problems/non-overlapping-intervals/" xr:uid="{57FB4510-6E57-4A99-B00D-F369E01AEA16}"/>
+    <hyperlink ref="D14" r:id="rId35" display="https://leetcode-cn.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{E938E238-D016-4594-8BBF-F3DC3499C692}"/>
+    <hyperlink ref="Q10" r:id="rId36" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{80322B4E-4CB5-41C5-9FD5-C94BC1C68393}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/LanQiao/题目.xlsx
+++ b/LanQiao/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B5D4E-0818-451A-8F0E-0C16B281EFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F8A11-2F2B-4D71-A215-14729A86028F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,43 @@
   </si>
   <si>
     <t>股票系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>一维写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. 解数独</t>
+  </si>
+  <si>
+    <t>bitset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>529. 扫雷游戏</t>
+  </si>
+  <si>
+    <t>679. 24 点游戏</t>
+  </si>
+  <si>
+    <t>剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>834. 树中距离之和</t>
+  </si>
+  <si>
+    <t>树状DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:EX204"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1985,7 +2022,9 @@
       <c r="Q10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2171,7 +2210,9 @@
       <c r="Q11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3255,13 +3296,27 @@
     </row>
     <row r="18" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3412,12 +3467,24 @@
     <row r="19" spans="1:154" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -32464,8 +32531,15 @@
     <hyperlink ref="C14" r:id="rId34" display="https://leetcode-cn.com/problems/non-overlapping-intervals/" xr:uid="{57FB4510-6E57-4A99-B00D-F369E01AEA16}"/>
     <hyperlink ref="D14" r:id="rId35" display="https://leetcode-cn.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{E938E238-D016-4594-8BBF-F3DC3499C692}"/>
     <hyperlink ref="Q10" r:id="rId36" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{80322B4E-4CB5-41C5-9FD5-C94BC1C68393}"/>
+    <hyperlink ref="C18" r:id="rId37" display="https://leetcode-cn.com/problems/generate-parentheses/" xr:uid="{98610265-DBC5-43A2-820D-7C42B1424300}"/>
+    <hyperlink ref="D18" r:id="rId38" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{78557DDC-9816-4E15-99DA-A4D74766113A}"/>
+    <hyperlink ref="E18" r:id="rId39" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{1E91BDF1-15D0-4E5D-B7BC-FF1D7178341F}"/>
+    <hyperlink ref="F18" r:id="rId40" display="https://leetcode-cn.com/problems/sudoku-solver/" xr:uid="{61E522C0-F3F9-48CD-B3E5-2B01334552A6}"/>
+    <hyperlink ref="G18" r:id="rId41" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{D6D20840-6278-4514-B635-6482D0F52050}"/>
+    <hyperlink ref="H18" r:id="rId42" display="https://leetcode-cn.com/problems/24-game/" xr:uid="{2569C086-140C-4BE0-8300-43E90D077AC7}"/>
+    <hyperlink ref="R10" r:id="rId43" display="https://leetcode-cn.com/problems/sum-of-distances-in-tree/" xr:uid="{CCFC0DF5-5C5F-448A-A409-167223DB0D61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/LanQiao/题目.xlsx
+++ b/LanQiao/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F8A11-2F2B-4D71-A215-14729A86028F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AAE32A-BEF8-4DD7-8240-BF49B65CF664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,13 @@
     <t>树状DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1349. 参加考试的最大学生数</t>
+  </si>
+  <si>
+    <t>状压DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,7 +644,7 @@
   <dimension ref="A2:EX204"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2035,9 @@
       <c r="R10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -2213,7 +2225,9 @@
       <c r="R11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -32538,8 +32552,9 @@
     <hyperlink ref="G18" r:id="rId41" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{D6D20840-6278-4514-B635-6482D0F52050}"/>
     <hyperlink ref="H18" r:id="rId42" display="https://leetcode-cn.com/problems/24-game/" xr:uid="{2569C086-140C-4BE0-8300-43E90D077AC7}"/>
     <hyperlink ref="R10" r:id="rId43" display="https://leetcode-cn.com/problems/sum-of-distances-in-tree/" xr:uid="{CCFC0DF5-5C5F-448A-A409-167223DB0D61}"/>
+    <hyperlink ref="S10" r:id="rId44" display="https://leetcode-cn.com/problems/maximum-students-taking-exam/" xr:uid="{370845C5-43C9-4941-91CF-2BB8076F5AC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>